--- a/src/main/java/com/konnect/testdata/GroupsTestdata.xlsx
+++ b/src/main/java/com/konnect/testdata/GroupsTestdata.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="2310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11175" windowHeight="1680" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewGroups" sheetId="1" r:id="rId1"/>
-    <sheet name="NewTag" sheetId="2" r:id="rId2"/>
+    <sheet name="ExistingGroups" sheetId="2" r:id="rId2"/>
+    <sheet name="NewProject" sheetId="3" r:id="rId3"/>
+    <sheet name="ProjectLinksCreation" sheetId="7" r:id="rId4"/>
+    <sheet name="ProjectTaskCreation" sheetId="8" r:id="rId5"/>
+    <sheet name="ProjectNotesCreation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:K5"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Groupname</t>
   </si>
@@ -32,20 +35,164 @@
     <t>NewTagName</t>
   </si>
   <si>
-    <t>Selenium1234</t>
-  </si>
-  <si>
-    <t>Seleniumjunit</t>
-  </si>
-  <si>
     <t>Seleniumjunitdesc</t>
+  </si>
+  <si>
+    <t>SearchCreatedTagName</t>
+  </si>
+  <si>
+    <t>Performance6</t>
+  </si>
+  <si>
+    <t>Existinggroup</t>
+  </si>
+  <si>
+    <t>GroupsAnnouncement</t>
+  </si>
+  <si>
+    <t>Existinggroupname</t>
+  </si>
+  <si>
+    <t>ExistingGroupsDiscussion</t>
+  </si>
+  <si>
+    <t>ExtGrpDiscussionComments</t>
+  </si>
+  <si>
+    <t>ExtGrpAnnouncementComments</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>projecttagname</t>
+  </si>
+  <si>
+    <t>SeleniumTAG5</t>
+  </si>
+  <si>
+    <t>ExistingGroupMemberselection</t>
+  </si>
+  <si>
+    <t>CTPAT</t>
+  </si>
+  <si>
+    <t>Notesname</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>UserNotes</t>
+  </si>
+  <si>
+    <t>SourceNotes</t>
+  </si>
+  <si>
+    <t>NotesTagName</t>
+  </si>
+  <si>
+    <t>SearchCreatedNotesTag</t>
+  </si>
+  <si>
+    <t>Selesourcenote</t>
+  </si>
+  <si>
+    <t>Seleusernote</t>
+  </si>
+  <si>
+    <t>Performance19</t>
+  </si>
+  <si>
+    <t>LinkTitleName</t>
+  </si>
+  <si>
+    <t>Linksdescriptionexcel</t>
+  </si>
+  <si>
+    <t>LinkTextfield</t>
+  </si>
+  <si>
+    <t>NewLinkTagName</t>
+  </si>
+  <si>
+    <t>ExistingLinkTag</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>TaskDesccription</t>
+  </si>
+  <si>
+    <t>NewTaskTagName</t>
+  </si>
+  <si>
+    <t>ExistingTaskTag</t>
+  </si>
+  <si>
+    <t>https://gtdataqa.ikonnectplus.com</t>
+  </si>
+  <si>
+    <t>LinkDesc</t>
+  </si>
+  <si>
+    <t>Task description</t>
+  </si>
+  <si>
+    <t>Sele user note</t>
+  </si>
+  <si>
+    <t>Sele source note</t>
+  </si>
+  <si>
+    <t>Link Desccription</t>
+  </si>
+  <si>
+    <t>SeleniumTAG10</t>
+  </si>
+  <si>
+    <t>LinkTag0001</t>
+  </si>
+  <si>
+    <t>TaskTag0001</t>
+  </si>
+  <si>
+    <t>SeleNotesTag0001</t>
+  </si>
+  <si>
+    <t>LinkTag001</t>
+  </si>
+  <si>
+    <t>ProjectLink00005</t>
+  </si>
+  <si>
+    <t>ProjectNotes00015</t>
+  </si>
+  <si>
+    <t>TaskNotes0013</t>
+  </si>
+  <si>
+    <t>ProjectLinkName00031</t>
+  </si>
+  <si>
+    <t>ProjectTask0005</t>
+  </si>
+  <si>
+    <t>AutomationChrome1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +200,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,8 +222,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,15 +243,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,39 +576,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -405,7 +631,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -413,20 +739,249 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>